--- a/app/preprocess.xlsx
+++ b/app/preprocess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D66426-8F80-4C59-B420-0AA674979DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B9480-50D5-4EED-B3DF-29EF7CADC7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>mesh0</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>Add Preprocessing steps</t>
+  </si>
+  <si>
+    <t>Quad Decomposition</t>
   </si>
 </sst>
 </file>
@@ -1221,702 +1224,889 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="C293" sqref="C293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15.5718</v>
+        <v>12.9941</v>
       </c>
       <c r="C1">
-        <v>19.2577</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.873000000000001</v>
+      </c>
+      <c r="D1">
+        <v>14.337899999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.289300000000001</v>
+        <v>12.010199999999999</v>
       </c>
       <c r="C2">
-        <v>29.9404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27.7483</v>
+      </c>
+      <c r="D2">
+        <v>19.9312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.775600000000001</v>
+        <v>11.5533</v>
       </c>
       <c r="C3">
-        <v>17.212399999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.049799999999999</v>
+      </c>
+      <c r="D3">
+        <v>13.041600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.53251599999999999</v>
+        <v>0.45411600000000002</v>
       </c>
       <c r="C4">
-        <v>0.84382100000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.79369000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.61563999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.78981800000000002</v>
+        <v>0.68189599999999995</v>
       </c>
       <c r="C5">
-        <v>1.8488500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7407699999999999</v>
+      </c>
+      <c r="D5">
+        <v>1.1211800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.44909399999999999</v>
+        <v>0.380886</v>
       </c>
       <c r="C6">
-        <v>1.1990400000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.11795</v>
+      </c>
+      <c r="D6">
+        <v>0.73359600000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.6575999999999999E-2</v>
+        <v>3.9732000000000003E-2</v>
       </c>
       <c r="C7">
-        <v>8.7037900000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.8060099999999993E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.1131999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.31963999999999998</v>
+        <v>0.27764299999999997</v>
       </c>
       <c r="C8">
-        <v>0.39254600000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.35216599999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.31946600000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.3433299999999999</v>
+        <v>1.1208100000000001</v>
       </c>
       <c r="C9">
-        <v>1.9592799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7823199999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.2565900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.28066000000000002</v>
+        <v>0.241593</v>
       </c>
       <c r="C10">
-        <v>0.62583200000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.60042700000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.38041999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.39807399999999998</v>
+        <v>0.34359000000000001</v>
       </c>
       <c r="C11">
-        <v>0.48814000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.42844199999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.38520500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.2031899999999996E-2</v>
+        <v>6.3477800000000001E-2</v>
       </c>
       <c r="C12">
-        <v>0.18091699999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.17389099999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.12193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.4946899999999999</v>
+        <v>2.9862899999999999</v>
       </c>
       <c r="C13">
-        <v>2.7629100000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2168600000000001</v>
+      </c>
+      <c r="D13">
+        <v>3.0630199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>24.2685</v>
+        <v>20.0305</v>
       </c>
       <c r="C14">
-        <v>29.935300000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25.728200000000001</v>
+      </c>
+      <c r="D14">
+        <v>22.1998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.238348</v>
+        <v>0.178344</v>
       </c>
       <c r="C15">
-        <v>0.39407599999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.32406600000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.26040600000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.371778</v>
+        <v>0.32240600000000003</v>
       </c>
       <c r="C16">
-        <v>0.890351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.846862</v>
+      </c>
+      <c r="D16">
+        <v>0.55137199999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.33909</v>
+        <v>0.292215</v>
       </c>
       <c r="C17">
-        <v>0.69933400000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.65526300000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.45375799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.29827799999999999</v>
+        <v>0.25391799999999998</v>
       </c>
       <c r="C18">
-        <v>0.69195200000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.63900199999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.38818999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.479159</v>
+        <v>0.41084799999999999</v>
       </c>
       <c r="C19">
-        <v>1.05891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.99847300000000005</v>
+      </c>
+      <c r="D19">
+        <v>0.73692299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.4821</v>
+        <v>1.3025800000000001</v>
       </c>
       <c r="C20">
-        <v>2.6528700000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.48895</v>
+      </c>
+      <c r="D20">
+        <v>1.83934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6.0201999999999999E-2</v>
+        <v>5.1381900000000001E-2</v>
       </c>
       <c r="C21">
-        <v>0.13564399999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.12452199999999999</v>
+      </c>
+      <c r="D21">
+        <v>9.9784200000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.0764E-2</v>
+        <v>2.6450000000000001E-2</v>
       </c>
       <c r="C22">
-        <v>9.7716300000000006E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.2833700000000005E-2</v>
+      </c>
+      <c r="D22">
+        <v>6.9992100000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.77199700000000004</v>
+        <v>0.68499600000000005</v>
       </c>
       <c r="C23">
-        <v>1.5347999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.43432</v>
+      </c>
+      <c r="D23">
+        <v>1.00892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.1542600000000001</v>
+        <v>0.98772700000000002</v>
       </c>
       <c r="C24">
-        <v>2.67659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5170699999999999</v>
+      </c>
+      <c r="D24">
+        <v>1.6928000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>27.743600000000001</v>
+        <v>23.716899999999999</v>
       </c>
       <c r="C25">
-        <v>33.354799999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29.049299999999999</v>
+      </c>
+      <c r="D25">
+        <v>26.399799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.34861199999999998</v>
+        <v>0.269924</v>
       </c>
       <c r="C26">
-        <v>0.45090000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.36943399999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.32310800000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.77349699999999999</v>
+        <v>0.680786</v>
       </c>
       <c r="C27">
-        <v>1.3733</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2677</v>
+      </c>
+      <c r="D27">
+        <v>0.92824200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8.9976200000000006E-2</v>
+        <v>7.9507999999999995E-2</v>
       </c>
       <c r="C28">
-        <v>0.15384800000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14161399999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.103224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.4501</v>
+        <v>0.388152</v>
       </c>
       <c r="C29">
-        <v>0.84967300000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.784918</v>
+      </c>
+      <c r="D29">
+        <v>0.54127400000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.53727199999999997</v>
+        <v>0.456036</v>
       </c>
       <c r="C30">
-        <v>0.71553199999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.62932500000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.53438600000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.267708</v>
+        <v>0.23325499999999999</v>
       </c>
       <c r="C31">
-        <v>0.31905</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.27924399999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.26351799999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.94439200000000001</v>
+        <v>0.79718299999999997</v>
       </c>
       <c r="C32">
-        <v>1.2725599999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1168199999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.96902699999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.37641200000000002</v>
+        <v>0.31515599999999999</v>
       </c>
       <c r="C33">
-        <v>0.94570299999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88364399999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.58042400000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.20701600000000001</v>
+        <v>0.17623</v>
       </c>
       <c r="C34">
-        <v>0.27454800000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.244589</v>
+      </c>
+      <c r="D34">
+        <v>0.22278400000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.4430400000000001</v>
+        <v>1.2645</v>
       </c>
       <c r="C35">
-        <v>1.5200400000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3458699999999999</v>
+      </c>
+      <c r="D35">
+        <v>1.3306500000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>13.7668</v>
+        <v>11.5829</v>
       </c>
       <c r="C36">
-        <v>17.0486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.820600000000001</v>
+      </c>
+      <c r="D36">
+        <v>12.986800000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.1157699999999999</v>
+        <v>0.92711399999999999</v>
       </c>
       <c r="C37">
-        <v>1.4866699999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.27207</v>
+      </c>
+      <c r="D37">
+        <v>1.0490900000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.04956</v>
+        <v>0.88602999999999998</v>
       </c>
       <c r="C38">
-        <v>1.41483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2278</v>
+      </c>
+      <c r="D38">
+        <v>1.00508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.14945600000000001</v>
+        <v>0.123918</v>
       </c>
       <c r="C39">
-        <v>0.20964099999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.18123</v>
+      </c>
+      <c r="D39">
+        <v>0.14679800000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.0871299999999999</v>
+        <v>0.91572600000000004</v>
       </c>
       <c r="C40">
-        <v>2.5184500000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3761000000000001</v>
+      </c>
+      <c r="D40">
+        <v>1.5216700000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.48546400000000001</v>
+        <v>0.40534799999999999</v>
       </c>
       <c r="C41">
-        <v>1.17523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1019300000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.65750399999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.69368700000000005</v>
+        <v>0.59093799999999996</v>
       </c>
       <c r="C42">
-        <v>1.36313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2776099999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.86530899999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.59923800000000005</v>
+        <v>0.50740399999999997</v>
       </c>
       <c r="C43">
-        <v>1.29823</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.21675</v>
+      </c>
+      <c r="D43">
+        <v>0.83148699999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.61909599999999998</v>
+        <v>0.52785199999999999</v>
       </c>
       <c r="C44">
-        <v>1.64655</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.54444</v>
+      </c>
+      <c r="D44">
+        <v>0.89916600000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.11777600000000001</v>
+        <v>0.101646</v>
       </c>
       <c r="C45">
-        <v>0.26278699999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.24549699999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.186056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.735232</v>
+        <v>0.64636199999999999</v>
       </c>
       <c r="C46">
-        <v>1.41316</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3210500000000001</v>
+      </c>
+      <c r="D46">
+        <v>0.91908699999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>15.6175</v>
+        <v>13.2013</v>
       </c>
       <c r="C47">
-        <v>19.1876</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.651199999999999</v>
+      </c>
+      <c r="D47">
+        <v>14.7187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.17546400000000001</v>
+        <v>0.135294</v>
       </c>
       <c r="C48">
-        <v>0.25142999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.20308399999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.16445399999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.89066800000000002</v>
+        <v>0.77225600000000005</v>
       </c>
       <c r="C49">
-        <v>1.73125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.61432</v>
+      </c>
+      <c r="D49">
+        <v>1.10823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.20811499999999999</v>
+        <v>0.177236</v>
       </c>
       <c r="C50">
-        <v>0.25953399999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.22853699999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.21169499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.266517</v>
+        <v>0.23278599999999999</v>
       </c>
       <c r="C51">
-        <v>0.45683400000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.42316900000000002</v>
+      </c>
+      <c r="D51">
+        <v>0.33827200000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.61456</v>
+        <v>1.3652200000000001</v>
       </c>
       <c r="C52">
-        <v>2.0330599999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7877400000000001</v>
+      </c>
+      <c r="D52">
+        <v>1.59199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.91453600000000002</v>
+        <v>0.76982799999999996</v>
       </c>
       <c r="C53">
-        <v>1.94136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.81599</v>
+      </c>
+      <c r="D53">
+        <v>1.2121299999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.158662</v>
+        <v>0.13621</v>
       </c>
       <c r="C54">
-        <v>0.38106400000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.35702400000000001</v>
+      </c>
+      <c r="D54">
+        <v>0.24606600000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.71836299999999997</v>
+        <v>0.64403900000000003</v>
       </c>
       <c r="C55">
-        <v>0.97724800000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.89143799999999995</v>
+      </c>
+      <c r="D55">
+        <v>0.76637</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.97289199999999998</v>
+        <v>0.82688499999999998</v>
       </c>
       <c r="C56">
-        <v>2.2348499999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0974400000000002</v>
+      </c>
+      <c r="D56">
+        <v>1.28061</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.561222</v>
+        <v>0.48764400000000002</v>
       </c>
       <c r="C57">
-        <v>1.22641</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1408700000000001</v>
+      </c>
+      <c r="D57">
+        <v>0.69157800000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>13.637499999999999</v>
+        <v>11.422599999999999</v>
       </c>
       <c r="C58">
-        <v>17.005800000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.694000000000001</v>
+      </c>
+      <c r="D58">
+        <v>12.841200000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.134488</v>
+        <v>9.4198000000000004E-2</v>
       </c>
       <c r="C59">
-        <v>0.227522</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.183092</v>
+      </c>
+      <c r="D59">
+        <v>0.143508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.21736</v>
+        <v>0.18548300000000001</v>
       </c>
       <c r="C60">
-        <v>0.63838600000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61298799999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.35502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.18912499999999999</v>
+        <v>0.16131000000000001</v>
       </c>
       <c r="C61">
-        <v>0.42681400000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.39900400000000003</v>
+      </c>
+      <c r="D61">
+        <v>0.27773399999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.6971700000000001</v>
+        <v>1.5861799999999999</v>
       </c>
       <c r="C62">
-        <v>1.9512799999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8421400000000001</v>
+      </c>
+      <c r="D62">
+        <v>1.7106399999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1924,362 +2114,461 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>3.30499E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2913900000000003E-2</v>
+      </c>
+      <c r="D63">
+        <v>2.00901E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.0523100000000001</v>
+        <v>0.89640699999999995</v>
       </c>
       <c r="C64">
-        <v>2.3065600000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.16737</v>
+      </c>
+      <c r="D64">
+        <v>1.43092</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2.7039599999999999</v>
+        <v>2.32043</v>
       </c>
       <c r="C65">
-        <v>3.4310499999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.02319</v>
+      </c>
+      <c r="D65">
+        <v>2.57633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>6.2651599999999998</v>
+        <v>5.3035100000000002</v>
       </c>
       <c r="C66">
-        <v>7.9142200000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8957699999999997</v>
+      </c>
+      <c r="D66">
+        <v>5.8561500000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.46511000000000002</v>
+        <v>0.38508199999999998</v>
       </c>
       <c r="C67">
-        <v>0.95942499999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88423399999999996</v>
+      </c>
+      <c r="D67">
+        <v>0.58666200000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.47834199999999999</v>
+        <v>0.40946399999999999</v>
       </c>
       <c r="C68">
-        <v>0.98389700000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.91430500000000003</v>
+      </c>
+      <c r="D68">
+        <v>0.62804300000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>15.5776</v>
+        <v>13.2385</v>
       </c>
       <c r="C69">
-        <v>19.150200000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.6172</v>
+      </c>
+      <c r="D69">
+        <v>14.752000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.34203</v>
+        <v>0.26602199999999998</v>
       </c>
       <c r="C70">
-        <v>0.45704600000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.37820999999999999</v>
+      </c>
+      <c r="D70">
+        <v>0.326432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7.7473799999999995E-2</v>
+        <v>6.6982E-2</v>
       </c>
       <c r="C71">
-        <v>0.19892799999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.186637</v>
+      </c>
+      <c r="D71">
+        <v>0.14091200000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.21732499999999999</v>
+        <v>0.18645100000000001</v>
       </c>
       <c r="C72">
-        <v>0.64371599999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61081099999999999</v>
+      </c>
+      <c r="D72">
+        <v>0.448208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.18890399999999999</v>
+        <v>0.16010199999999999</v>
       </c>
       <c r="C73">
-        <v>0.409466</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.37138199999999999</v>
+      </c>
+      <c r="D73">
+        <v>0.23614099999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.106978</v>
+        <v>9.3203800000000003E-2</v>
       </c>
       <c r="C74">
-        <v>0.25850299999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.242787</v>
+      </c>
+      <c r="D74">
+        <v>0.162878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.30958400000000003</v>
+        <v>0.27148699999999998</v>
       </c>
       <c r="C75">
-        <v>0.55602600000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51878800000000003</v>
+      </c>
+      <c r="D75">
+        <v>0.38967400000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.111066</v>
+        <v>9.74603E-2</v>
       </c>
       <c r="C76">
-        <v>0.223049</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.20871899999999999</v>
+      </c>
+      <c r="D76">
+        <v>0.14555199999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.08277</v>
+        <v>0.94944200000000001</v>
       </c>
       <c r="C77">
-        <v>1.8581300000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7217</v>
+      </c>
+      <c r="D77">
+        <v>1.2771300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.35063800000000001</v>
+        <v>0.28083999999999998</v>
       </c>
       <c r="C78">
-        <v>0.51884200000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.45131300000000002</v>
+      </c>
+      <c r="D78">
+        <v>0.36812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.23528199999999999</v>
+        <v>0.20032800000000001</v>
       </c>
       <c r="C79">
-        <v>0.41530600000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.38388600000000001</v>
+      </c>
+      <c r="D79">
+        <v>0.28888900000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>13.6317</v>
+        <v>11.4152</v>
       </c>
       <c r="C80">
-        <v>17.005299999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.6959</v>
+      </c>
+      <c r="D80">
+        <v>12.905799999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.179174</v>
+        <v>0.133658</v>
       </c>
       <c r="C81">
-        <v>0.248588</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.197048</v>
+      </c>
+      <c r="D81">
+        <v>0.16683400000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.32923999999999998</v>
+        <v>0.28906599999999999</v>
       </c>
       <c r="C82">
-        <v>0.719306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.67944800000000005</v>
+      </c>
+      <c r="D82">
+        <v>0.45045000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.80803599999999998</v>
+        <v>0.68398599999999998</v>
       </c>
       <c r="C83">
-        <v>1.0401</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.90392899999999998</v>
+      </c>
+      <c r="D83">
+        <v>0.79166800000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2.7249599999999998</v>
+        <v>2.3893399999999998</v>
       </c>
       <c r="C84">
-        <v>3.2185600000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8648199999999999</v>
+      </c>
+      <c r="D84">
+        <v>2.6215600000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.1208499999999999</v>
+        <v>0.95316400000000001</v>
       </c>
       <c r="C85">
-        <v>2.6771799999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.52277</v>
+      </c>
+      <c r="D85">
+        <v>1.59623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.99102900000000005</v>
+        <v>0.86970800000000004</v>
       </c>
       <c r="C86">
-        <v>1.10792</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.97685200000000005</v>
+      </c>
+      <c r="D86">
+        <v>0.92721299999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>5.74799E-2</v>
+        <v>4.9189999999999998E-2</v>
       </c>
       <c r="C87">
-        <v>0.12925800000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.11898</v>
+      </c>
+      <c r="D87">
+        <v>9.2923800000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>5.1903999999999999E-2</v>
+        <v>4.3121899999999998E-2</v>
       </c>
       <c r="C88">
-        <v>0.12367</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.11436200000000001</v>
+      </c>
+      <c r="D88">
+        <v>8.5431699999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.13561599999999999</v>
+        <v>0.112788</v>
       </c>
       <c r="C89">
-        <v>0.42517100000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.40655599999999997</v>
+      </c>
+      <c r="D89">
+        <v>0.22519700000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>5.5176200000000002E-2</v>
+        <v>4.5969999999999997E-2</v>
       </c>
       <c r="C90">
-        <v>0.12673000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.118358</v>
+      </c>
+      <c r="D90">
+        <v>9.8080399999999998E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>15.527200000000001</v>
+        <v>13.141299999999999</v>
       </c>
       <c r="C91">
-        <v>19.1066</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.5623</v>
+      </c>
+      <c r="D91">
+        <v>14.727600000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.290184</v>
+        <v>0.220026</v>
       </c>
       <c r="C92">
-        <v>0.37576799999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.30340400000000001</v>
+      </c>
+      <c r="D92">
+        <v>0.26179999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.23418700000000001</v>
+        <v>0.20307600000000001</v>
       </c>
       <c r="C93">
-        <v>0.54688999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51529400000000003</v>
+      </c>
+      <c r="D93">
+        <v>0.35503000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.16434599999999999</v>
+        <v>0.14095199999999999</v>
       </c>
       <c r="C94">
-        <v>0.45351000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.42377399999999998</v>
+      </c>
+      <c r="D94">
+        <v>0.30227100000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.55445</v>
+        <v>0.412636</v>
       </c>
       <c r="C95">
-        <v>0.69437800000000005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.542632</v>
+      </c>
+      <c r="D95">
+        <v>0.47604600000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2287,2160 +2576,2751 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>3.2609899999999997E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2113900000000001E-2</v>
+      </c>
+      <c r="D96">
+        <v>1.9196000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.10248400000000001</v>
+        <v>8.75441E-2</v>
       </c>
       <c r="C97">
-        <v>0.228051</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.21204400000000001</v>
+      </c>
+      <c r="D97">
+        <v>0.152198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.16943</v>
+        <v>5.5432200000000001E-2</v>
       </c>
       <c r="C98">
-        <v>0.34187400000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.114624</v>
+      </c>
+      <c r="D98">
+        <v>8.0969899999999997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.13259000000000001</v>
+        <v>0.115924</v>
       </c>
       <c r="C99">
-        <v>0.24646899999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.22822899999999999</v>
+      </c>
+      <c r="D99">
+        <v>0.16713800000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2.1073400000000002</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="C100">
-        <v>2.4792800000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.21292</v>
+      </c>
+      <c r="D100">
+        <v>2.0213199999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.244004</v>
+        <v>0.206155</v>
       </c>
       <c r="C101">
-        <v>0.55876000000000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51959599999999995</v>
+      </c>
+      <c r="D101">
+        <v>0.35319499999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>13.834</v>
+        <v>11.6158</v>
       </c>
       <c r="C102">
-        <v>17.115400000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.801399999999999</v>
+      </c>
+      <c r="D102">
+        <v>13.0481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.8689800000000001</v>
+        <v>1.58195</v>
       </c>
       <c r="C103">
-        <v>2.3678699999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0704099999999999</v>
+      </c>
+      <c r="D103">
+        <v>1.7822800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.57970699999999997</v>
+        <v>0.50361400000000001</v>
       </c>
       <c r="C104">
-        <v>1.0902099999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.01623</v>
+      </c>
+      <c r="D104">
+        <v>0.74283100000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.54503199999999996</v>
+        <v>0.460758</v>
       </c>
       <c r="C105">
-        <v>0.75418200000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.66988499999999995</v>
+      </c>
+      <c r="D105">
+        <v>0.55762100000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.131354</v>
+        <v>0.11357200000000001</v>
       </c>
       <c r="C106">
-        <v>0.23141600000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.20979</v>
+      </c>
+      <c r="D106">
+        <v>0.159668</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.52868199999999999</v>
+        <v>0.45751999999999998</v>
       </c>
       <c r="C107">
-        <v>1.0593699999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.98918099999999998</v>
+      </c>
+      <c r="D107">
+        <v>0.66736499999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>5.4944199999999999E-2</v>
+        <v>4.6761900000000002E-2</v>
       </c>
       <c r="C108">
-        <v>0.12845599999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.118284</v>
+      </c>
+      <c r="D108">
+        <v>8.6952100000000004E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>5.7702000000000003E-2</v>
+        <v>5.2044100000000003E-2</v>
       </c>
       <c r="C109">
-        <v>0.15024599999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.144374</v>
+      </c>
+      <c r="D109">
+        <v>0.10194599999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.261957</v>
+        <v>0.22736899999999999</v>
       </c>
       <c r="C110">
-        <v>0.59945599999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.56349199999999999</v>
+      </c>
+      <c r="D110">
+        <v>0.36674400000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.110744</v>
+        <v>9.5490400000000003E-2</v>
       </c>
       <c r="C111">
-        <v>0.222554</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.20330000000000001</v>
+      </c>
+      <c r="D111">
+        <v>0.154358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>5.0781800000000002E-2</v>
+        <v>4.22219E-2</v>
       </c>
       <c r="C112">
-        <v>0.123906</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.114276</v>
+      </c>
+      <c r="D112">
+        <v>8.3406099999999997E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>13.6944</v>
+        <v>11.451000000000001</v>
       </c>
       <c r="C113">
-        <v>17.049700000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.722099999999999</v>
+      </c>
+      <c r="D113">
+        <v>12.9133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>13.884399999999999</v>
+        <v>11.6873</v>
       </c>
       <c r="C114">
-        <v>17.2013</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.867000000000001</v>
+      </c>
+      <c r="D114">
+        <v>13.0792</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.108464</v>
+        <v>7.2655899999999995E-2</v>
       </c>
       <c r="C115">
-        <v>0.182008</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14408599999999999</v>
+      </c>
+      <c r="D115">
+        <v>0.10112400000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.73848400000000003</v>
+        <v>0.63197400000000004</v>
       </c>
       <c r="C116">
-        <v>1.50396</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.40449</v>
+      </c>
+      <c r="D116">
+        <v>0.92018</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.10574799999999999</v>
+        <v>4.2313999999999997E-2</v>
       </c>
       <c r="C117">
-        <v>0.23353499999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.8813900000000006E-2</v>
+      </c>
+      <c r="D117">
+        <v>6.5047900000000006E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.50424999999999998</v>
+        <v>0.41536600000000001</v>
       </c>
       <c r="C118">
-        <v>1.3651599999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2776799999999999</v>
+      </c>
+      <c r="D118">
+        <v>0.81647199999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.209284</v>
+        <v>0.20150699999999999</v>
       </c>
       <c r="C119">
-        <v>0.32405400000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.307562</v>
+      </c>
+      <c r="D119">
+        <v>0.25888699999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.17826400000000001</v>
+        <v>0.147532</v>
       </c>
       <c r="C120">
-        <v>0.52471100000000004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.49546000000000001</v>
+      </c>
+      <c r="D120">
+        <v>0.27515299999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.3856599999999999</v>
+        <v>1.20408</v>
       </c>
       <c r="C121">
-        <v>1.66211</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.46346</v>
+      </c>
+      <c r="D121">
+        <v>1.3018799999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.30036</v>
+        <v>1.9432100000000001</v>
       </c>
       <c r="C122">
-        <v>2.9192399999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.57037</v>
+      </c>
+      <c r="D122">
+        <v>2.1357699999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7.2673800000000002</v>
+        <v>6.8239599999999996</v>
       </c>
       <c r="C123">
-        <v>8.0451499999999996</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.5502200000000004</v>
+      </c>
+      <c r="D123">
+        <v>7.0653300000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.2098800000000001</v>
+        <v>1.0466</v>
       </c>
       <c r="C124">
-        <v>1.4270099999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2620400000000001</v>
+      </c>
+      <c r="D124">
+        <v>1.13473</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>15.731299999999999</v>
+        <v>13.3178</v>
       </c>
       <c r="C125">
-        <v>19.052</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.581499999999998</v>
+      </c>
+      <c r="D125">
+        <v>14.744300000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3.48102</v>
+        <v>2.8738999999999999</v>
       </c>
       <c r="C126">
-        <v>12.7499</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.1305</v>
+      </c>
+      <c r="D126">
+        <v>8.8409399999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>9.1044100000000003E-2</v>
+        <v>7.3053900000000005E-2</v>
       </c>
       <c r="C127">
-        <v>0.20481199999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.18095600000000001</v>
+      </c>
+      <c r="D127">
+        <v>0.13994200000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1.4577500000000001</v>
+        <v>1.27965</v>
       </c>
       <c r="C128">
-        <v>2.5823499999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.41228</v>
+      </c>
+      <c r="D128">
+        <v>1.73227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.3904000000000001</v>
+        <v>1.20136</v>
       </c>
       <c r="C129">
-        <v>1.60582</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.42055</v>
+      </c>
+      <c r="D129">
+        <v>1.31088</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.21692900000000001</v>
+        <v>0.17737600000000001</v>
       </c>
       <c r="C130">
-        <v>0.60222100000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.56993400000000005</v>
+      </c>
+      <c r="D130">
+        <v>0.36640600000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>6.6919399999999998</v>
+        <v>5.6639099999999996</v>
       </c>
       <c r="C131">
-        <v>8.5497800000000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.4490299999999996</v>
+      </c>
+      <c r="D131">
+        <v>6.35168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.56934399999999996</v>
+        <v>0.45982600000000001</v>
       </c>
       <c r="C132">
-        <v>0.86052099999999998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.74303699999999995</v>
+      </c>
+      <c r="D132">
+        <v>0.57129300000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1.6949000000000001</v>
+        <v>1.4303699999999999</v>
       </c>
       <c r="C133">
-        <v>2.1482999999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8722300000000001</v>
+      </c>
+      <c r="D133">
+        <v>1.6485300000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2.2261099999999998</v>
+        <v>1.8933</v>
       </c>
       <c r="C134">
-        <v>5.5037900000000004</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1829200000000002</v>
+      </c>
+      <c r="D134">
+        <v>3.36477</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>3.1496200000000001</v>
+        <v>2.7494000000000001</v>
       </c>
       <c r="C135">
-        <v>5.9669800000000004</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.5564999999999998</v>
+      </c>
+      <c r="D135">
+        <v>4.0699500000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7.8534600000000001</v>
+        <v>6.6059900000000003</v>
       </c>
       <c r="C136">
-        <v>9.7526600000000006</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.3983699999999999</v>
+      </c>
+      <c r="D136">
+        <v>7.2453399999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>5.4809599999999996</v>
+        <v>4.6240600000000001</v>
       </c>
       <c r="C137">
-        <v>7.2097800000000003</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.2994300000000001</v>
+      </c>
+      <c r="D137">
+        <v>5.2576799999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2.5630999999999999</v>
+        <v>2.1492200000000001</v>
       </c>
       <c r="C138">
-        <v>5.3466899999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9540100000000002</v>
+      </c>
+      <c r="D138">
+        <v>3.15387</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>19.432200000000002</v>
+        <v>16.434200000000001</v>
       </c>
       <c r="C139">
-        <v>24.565300000000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21.425699999999999</v>
+      </c>
+      <c r="D139">
+        <v>18.282499999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>18.566600000000001</v>
+        <v>16.0777</v>
       </c>
       <c r="C140">
-        <v>35.308900000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32.762700000000002</v>
+      </c>
+      <c r="D140">
+        <v>23.569299999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1.3770800000000001</v>
+        <v>1.13845</v>
       </c>
       <c r="C141">
-        <v>1.8481300000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6253200000000001</v>
+      </c>
+      <c r="D141">
+        <v>1.36307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2.99064</v>
+        <v>2.55071</v>
       </c>
       <c r="C142">
-        <v>3.9211999999999998</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4581599999999999</v>
+      </c>
+      <c r="D142">
+        <v>2.9700099999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2.69001</v>
+        <v>2.2884600000000002</v>
       </c>
       <c r="C143">
-        <v>6.2083599999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.8208500000000001</v>
+      </c>
+      <c r="D143">
+        <v>3.6531199999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.32470199999999999</v>
+        <v>0.27660699999999999</v>
       </c>
       <c r="C144">
-        <v>0.70608199999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.659636</v>
+      </c>
+      <c r="D144">
+        <v>0.44497799999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1.9606300000000001</v>
+        <v>1.7174</v>
       </c>
       <c r="C145">
-        <v>3.2134200000000002</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.95669</v>
+      </c>
+      <c r="D145">
+        <v>2.2291699999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.65442100000000003</v>
+        <v>0.53888800000000003</v>
       </c>
       <c r="C146">
-        <v>1.4739</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.35772</v>
+      </c>
+      <c r="D146">
+        <v>0.84904000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>15.5815</v>
+        <v>13.191000000000001</v>
       </c>
       <c r="C147">
-        <v>19.107099999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.6008</v>
+      </c>
+      <c r="D147">
+        <v>14.7638</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>4.25366</v>
+        <v>3.6489099999999999</v>
       </c>
       <c r="C148">
-        <v>8.5465900000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.96638</v>
+      </c>
+      <c r="D148">
+        <v>5.5730000000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>3.5617299999999998</v>
+        <v>3.0533800000000002</v>
       </c>
       <c r="C149">
-        <v>7.9951999999999996</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.5245800000000003</v>
+      </c>
+      <c r="D149">
+        <v>5.3438800000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>6.3349799999999998</v>
+        <v>5.4567100000000002</v>
       </c>
       <c r="C150">
-        <v>12.7216</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11.854799999999999</v>
+      </c>
+      <c r="D150">
+        <v>7.7290200000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>9.9680700000000009</v>
+        <v>8.4269999999999996</v>
       </c>
       <c r="C151">
-        <v>12.818099999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11.178000000000001</v>
+      </c>
+      <c r="D151">
+        <v>9.4422599999999992</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.50619800000000004</v>
+        <v>0.41899399999999998</v>
       </c>
       <c r="C152">
-        <v>0.86808399999999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.79727999999999999</v>
+      </c>
+      <c r="D152">
+        <v>0.57907200000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1.4712499999999999</v>
+        <v>1.2273799999999999</v>
       </c>
       <c r="C153">
-        <v>2.67422</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4426000000000001</v>
+      </c>
+      <c r="D153">
+        <v>1.52382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2.1365500000000002</v>
+        <v>1.8501099999999999</v>
       </c>
       <c r="C154">
-        <v>4.8843699999999997</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5817899999999998</v>
+      </c>
+      <c r="D154">
+        <v>3.5593400000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2.99932</v>
+        <v>2.5954600000000001</v>
       </c>
       <c r="C155">
-        <v>3.69469</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2761399999999998</v>
+      </c>
+      <c r="D155">
+        <v>2.9146899999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>4.2275499999999999</v>
+        <v>3.6220599999999998</v>
       </c>
       <c r="C156">
-        <v>5.2693700000000003</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.6471099999999996</v>
+      </c>
+      <c r="D156">
+        <v>4.1317599999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>11.338900000000001</v>
+        <v>9.8822399999999995</v>
       </c>
       <c r="C157">
-        <v>14.516299999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.9038</v>
+      </c>
+      <c r="D157">
+        <v>11.540699999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>15.619</v>
+        <v>13.2578</v>
       </c>
       <c r="C158">
-        <v>19.111599999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.619299999999999</v>
+      </c>
+      <c r="D158">
+        <v>14.7843</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2.5288499999999998</v>
+        <v>2.1438799999999998</v>
       </c>
       <c r="C159">
-        <v>3.18899</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8020499999999999</v>
+      </c>
+      <c r="D159">
+        <v>2.5129800000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.78138399999999997</v>
+        <v>0.66437100000000004</v>
       </c>
       <c r="C160">
-        <v>1.6975199999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.58521</v>
+      </c>
+      <c r="D160">
+        <v>1.13869</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.4528099999999999</v>
+        <v>1.2537400000000001</v>
       </c>
       <c r="C161">
-        <v>3.2422900000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0366</v>
+      </c>
+      <c r="D161">
+        <v>2.1976200000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>4.5239000000000003</v>
+        <v>3.9949300000000001</v>
       </c>
       <c r="C162">
-        <v>6.0297400000000003</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.4503199999999996</v>
+      </c>
+      <c r="D162">
+        <v>4.8942399999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>3.67082</v>
+        <v>3.10378</v>
       </c>
       <c r="C163">
-        <v>4.7049399999999997</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1086299999999998</v>
+      </c>
+      <c r="D163">
+        <v>3.4426199999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.51858199999999999</v>
+        <v>0.44406200000000001</v>
       </c>
       <c r="C164">
-        <v>0.94421600000000006</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.87584600000000001</v>
+      </c>
+      <c r="D164">
+        <v>0.63096600000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2.2839100000000001</v>
+        <v>1.98508</v>
       </c>
       <c r="C165">
-        <v>4.79122</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.4897799999999997</v>
+      </c>
+      <c r="D165">
+        <v>3.0636399999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2.5479699999999998</v>
+        <v>2.1694300000000002</v>
       </c>
       <c r="C166">
-        <v>3.42089</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9990199999999998</v>
+      </c>
+      <c r="D166">
+        <v>2.56298</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>3.02556</v>
+        <v>2.6019000000000001</v>
       </c>
       <c r="C167">
-        <v>7.87066</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.4349400000000001</v>
+      </c>
+      <c r="D167">
+        <v>5.2598500000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2.2591800000000002</v>
+        <v>1.9155</v>
       </c>
       <c r="C168">
-        <v>2.9990700000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6188699999999998</v>
+      </c>
+      <c r="D168">
+        <v>2.2089699999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>24.4178</v>
+        <v>20.462900000000001</v>
       </c>
       <c r="C169">
-        <v>29.6113</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25.253299999999999</v>
+      </c>
+      <c r="D169">
+        <v>22.1313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>3.7647400000000002</v>
+        <v>3.2399499999999999</v>
       </c>
       <c r="C170">
-        <v>4.5480400000000003</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.0158199999999997</v>
+      </c>
+      <c r="D170">
+        <v>3.6210300000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.60429200000000005</v>
+        <v>0.51458999999999999</v>
       </c>
       <c r="C171">
-        <v>1.0789800000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.991838</v>
+      </c>
+      <c r="D171">
+        <v>0.75448300000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.51489200000000002</v>
+        <v>0.43702600000000003</v>
       </c>
       <c r="C172">
-        <v>0.69497600000000004</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.61623600000000001</v>
+      </c>
+      <c r="D172">
+        <v>0.52793599999999996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.81729399999999996</v>
+        <v>0.67847199999999996</v>
       </c>
       <c r="C173">
-        <v>1.09762</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.95496000000000003</v>
+      </c>
+      <c r="D173">
+        <v>0.80730900000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1.0565199999999999</v>
+        <v>0.936554</v>
       </c>
       <c r="C174">
-        <v>1.6365799999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4975499999999999</v>
+      </c>
+      <c r="D174">
+        <v>1.24268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.48621799999999998</v>
+        <v>0.41694199999999998</v>
       </c>
       <c r="C175">
-        <v>1.07572</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.00291</v>
+      </c>
+      <c r="D175">
+        <v>0.70975299999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>2.2756799999999999</v>
+        <v>1.9768699999999999</v>
       </c>
       <c r="C176">
-        <v>2.76647</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4488400000000001</v>
+      </c>
+      <c r="D176">
+        <v>2.2042600000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>2.00156</v>
+        <v>1.6933499999999999</v>
       </c>
       <c r="C177">
-        <v>4.3121400000000003</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.9941</v>
+      </c>
+      <c r="D177">
+        <v>2.5287500000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1.5299100000000001</v>
+        <v>1.2989299999999999</v>
       </c>
       <c r="C178">
-        <v>3.1751499999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9534600000000002</v>
+      </c>
+      <c r="D178">
+        <v>1.93268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>2.8279100000000001</v>
+        <v>2.4015499999999999</v>
       </c>
       <c r="C179">
-        <v>3.4420999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0201799999999999</v>
+      </c>
+      <c r="D179">
+        <v>2.6814300000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>15.8886</v>
+        <v>13.403499999999999</v>
       </c>
       <c r="C180">
-        <v>19.206499999999998</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.6571</v>
+      </c>
+      <c r="D180">
+        <v>14.817500000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1.0918699999999999</v>
+        <v>0.90639400000000003</v>
       </c>
       <c r="C181">
-        <v>2.7513100000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5747499999999999</v>
+      </c>
+      <c r="D181">
+        <v>1.7668999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>4.49444</v>
+        <v>3.8848199999999999</v>
       </c>
       <c r="C182">
-        <v>5.6566099999999997</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0047800000000002</v>
+      </c>
+      <c r="D182">
+        <v>4.4367200000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.89994399999999997</v>
+        <v>0.786026</v>
       </c>
       <c r="C183">
-        <v>1.5786500000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.46757</v>
+      </c>
+      <c r="D183">
+        <v>1.1346700000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.26260099999999997</v>
+        <v>0.233546</v>
       </c>
       <c r="C184">
-        <v>0.47436400000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.44213999999999998</v>
+      </c>
+      <c r="D184">
+        <v>0.37398799999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.67093199999999997</v>
+        <v>0.57002600000000003</v>
       </c>
       <c r="C185">
-        <v>0.86018600000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.75911600000000001</v>
+      </c>
+      <c r="D185">
+        <v>0.68841600000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>2.1594000000000002</v>
+        <v>1.8571299999999999</v>
       </c>
       <c r="C186">
-        <v>2.7084000000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3745099999999999</v>
+      </c>
+      <c r="D186">
+        <v>2.0720200000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.31454799999999999</v>
+        <v>0.25857799999999997</v>
       </c>
       <c r="C187">
-        <v>0.448162</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.38584800000000002</v>
+      </c>
+      <c r="D187">
+        <v>0.32995200000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2.98305</v>
+        <v>2.5956100000000002</v>
       </c>
       <c r="C188">
-        <v>4.9153900000000004</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5590700000000002</v>
+      </c>
+      <c r="D188">
+        <v>3.32864</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>5.2528100000000001E-2</v>
+        <v>4.5650000000000003E-2</v>
       </c>
       <c r="C189">
-        <v>0.122382</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.11536399999999999</v>
+      </c>
+      <c r="D189">
+        <v>9.0099799999999994E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.28782999999999997</v>
+        <v>0.24129400000000001</v>
       </c>
       <c r="C190">
-        <v>0.69447400000000004</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6542</v>
+      </c>
+      <c r="D190">
+        <v>0.40204200000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>15.724600000000001</v>
+        <v>13.260899999999999</v>
       </c>
       <c r="C191">
-        <v>19.138000000000002</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.613600000000002</v>
+      </c>
+      <c r="D191">
+        <v>14.7628</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>3.1482999999999999</v>
+        <v>2.6691400000000001</v>
       </c>
       <c r="C192">
-        <v>3.8467699999999998</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.37113</v>
+      </c>
+      <c r="D192">
+        <v>2.9534400000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1.0888199999999999</v>
+        <v>0.89840200000000003</v>
       </c>
       <c r="C193">
-        <v>1.5740499999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.36957</v>
+      </c>
+      <c r="D193">
+        <v>1.01634</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.53598599999999996</v>
+        <v>0.43784800000000001</v>
       </c>
       <c r="C194">
-        <v>1.3848400000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2810999999999999</v>
+      </c>
+      <c r="D194">
+        <v>0.789358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.54852800000000002</v>
+        <v>0.48777599999999999</v>
       </c>
       <c r="C195">
-        <v>0.84851799999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.77553499999999997</v>
+      </c>
+      <c r="D195">
+        <v>0.65856999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1.4539500000000001</v>
+        <v>1.27742</v>
       </c>
       <c r="C196">
-        <v>2.47295</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2976100000000002</v>
+      </c>
+      <c r="D196">
+        <v>1.6660200000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1.0381899999999999</v>
+        <v>0.89072899999999999</v>
       </c>
       <c r="C197">
-        <v>1.3542799999999999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2043299999999999</v>
+      </c>
+      <c r="D197">
+        <v>1.0394000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.38761800000000002</v>
+        <v>0.33306999999999998</v>
       </c>
       <c r="C198">
-        <v>0.839032</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.77906200000000003</v>
+      </c>
+      <c r="D198">
+        <v>0.52280599999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>3.7329400000000001</v>
+        <v>3.24525</v>
       </c>
       <c r="C199">
-        <v>7.9135499999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.41256</v>
+      </c>
+      <c r="D199">
+        <v>5.5563200000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.98834999999999995</v>
+        <v>0.82926200000000005</v>
       </c>
       <c r="C200">
-        <v>2.1543999999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0115699999999999</v>
+      </c>
+      <c r="D200">
+        <v>1.35545</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.75776600000000005</v>
+        <v>0.62899400000000005</v>
       </c>
       <c r="C201">
-        <v>0.96409100000000003</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83688600000000002</v>
+      </c>
+      <c r="D201">
+        <v>0.75028700000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>13.987</v>
+        <v>11.700699999999999</v>
       </c>
       <c r="C202">
-        <v>17.2607</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.004799999999999</v>
+      </c>
+      <c r="D202">
+        <v>13.2363</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.36553400000000003</v>
+        <v>0.29216399999999998</v>
       </c>
       <c r="C203">
-        <v>0.818832</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.75003399999999998</v>
+      </c>
+      <c r="D203">
+        <v>0.53842400000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1.3205100000000001</v>
+        <v>1.1194200000000001</v>
       </c>
       <c r="C204">
-        <v>1.6932</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4721</v>
+      </c>
+      <c r="D204">
+        <v>1.2847999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.21998000000000001</v>
+        <v>0.182116</v>
       </c>
       <c r="C205">
-        <v>0.60794300000000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.56742999999999999</v>
+      </c>
+      <c r="D205">
+        <v>0.36943399999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1.45943</v>
+        <v>1.2724899999999999</v>
       </c>
       <c r="C206">
-        <v>2.49369</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.31264</v>
+      </c>
+      <c r="D206">
+        <v>1.64927</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.348806</v>
+        <v>0.29537200000000002</v>
       </c>
       <c r="C207">
-        <v>0.74222900000000003</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.69309699999999996</v>
+      </c>
+      <c r="D207">
+        <v>0.46650799999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.33061800000000002</v>
+        <v>0.280499</v>
       </c>
       <c r="C208">
-        <v>0.72291799999999995</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.67090399999999994</v>
+      </c>
+      <c r="D208">
+        <v>0.43772499999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1.1460999999999999</v>
+        <v>1.0015499999999999</v>
       </c>
       <c r="C209">
-        <v>1.3194399999999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1744300000000001</v>
+      </c>
+      <c r="D209">
+        <v>1.08639</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.10091600000000001</v>
+        <v>8.6455799999999999E-2</v>
       </c>
       <c r="C210">
-        <v>0.138686</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.122722</v>
+      </c>
+      <c r="D210">
+        <v>0.119952</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>3.4727399999999999</v>
+        <v>3.02366</v>
       </c>
       <c r="C211">
-        <v>6.9478499999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.4809900000000003</v>
+      </c>
+      <c r="D211">
+        <v>4.6184399999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>8.8483800000000001E-2</v>
+        <v>6.9876099999999997E-2</v>
       </c>
       <c r="C212">
-        <v>0.12928999999999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.10962</v>
+      </c>
+      <c r="D212">
+        <v>0.108302</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>14.1181</v>
+        <v>11.8286</v>
       </c>
       <c r="C213">
-        <v>17.732700000000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.4313</v>
+      </c>
+      <c r="D213">
+        <v>13.472099999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214">
-        <v>388.68599999999998</v>
+        <v>367.10399999999998</v>
       </c>
       <c r="C214">
-        <v>621.30600000000004</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>603.11400000000003</v>
+      </c>
+      <c r="D214">
+        <v>485.25700000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215">
-        <v>15.478</v>
+        <v>12.5261</v>
       </c>
       <c r="C215">
-        <v>18.854099999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.873900000000001</v>
+      </c>
+      <c r="D215">
+        <v>13.9054</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216">
-        <v>14.207800000000001</v>
+        <v>11.9147</v>
       </c>
       <c r="C216">
-        <v>17.699300000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.309200000000001</v>
+      </c>
+      <c r="D216">
+        <v>13.382300000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217">
-        <v>14.2821</v>
+        <v>11.945399999999999</v>
       </c>
       <c r="C217">
-        <v>17.731200000000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.301399999999999</v>
+      </c>
+      <c r="D217">
+        <v>13.4116</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218">
-        <v>28.094899999999999</v>
+        <v>23.844999999999999</v>
       </c>
       <c r="C218">
-        <v>33.603299999999997</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29.024699999999999</v>
+      </c>
+      <c r="D218">
+        <v>26.421700000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>6.5498399999999997</v>
+        <v>5.4339599999999999</v>
       </c>
       <c r="C219">
-        <v>8.2083700000000004</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.0772399999999998</v>
+      </c>
+      <c r="D219">
+        <v>6.0111100000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220">
-        <v>13.7476</v>
+        <v>11.5801</v>
       </c>
       <c r="C220">
-        <v>17.146599999999999</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.891999999999999</v>
+      </c>
+      <c r="D220">
+        <v>13.1248</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221">
-        <v>12.385400000000001</v>
+        <v>10.3941</v>
       </c>
       <c r="C221">
-        <v>15.309900000000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13.2285</v>
+      </c>
+      <c r="D221">
+        <v>11.565200000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>12.3264</v>
+        <v>10.3863</v>
       </c>
       <c r="C222">
-        <v>15.2737</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13.2166</v>
+      </c>
+      <c r="D222">
+        <v>11.536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>15.7356</v>
+        <v>13.290699999999999</v>
       </c>
       <c r="C223">
-        <v>19.223400000000002</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.654</v>
+      </c>
+      <c r="D223">
+        <v>14.757199999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>13.815899999999999</v>
+        <v>11.6302</v>
       </c>
       <c r="C224">
-        <v>17.273800000000001</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.95</v>
+      </c>
+      <c r="D224">
+        <v>13.1814</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225">
-        <v>22.739599999999999</v>
+        <v>19.328499999999998</v>
       </c>
       <c r="C225">
-        <v>27.435600000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23.794499999999999</v>
+      </c>
+      <c r="D225">
+        <v>21.3065</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226">
-        <v>13.8286</v>
+        <v>11.558999999999999</v>
       </c>
       <c r="C226">
-        <v>17.113299999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.797800000000001</v>
+      </c>
+      <c r="D226">
+        <v>12.979799999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227">
-        <v>13.8047</v>
+        <v>11.582700000000001</v>
       </c>
       <c r="C227">
-        <v>17.306100000000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.969799999999999</v>
+      </c>
+      <c r="D227">
+        <v>13.142300000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228">
-        <v>14.2234</v>
+        <v>11.936299999999999</v>
       </c>
       <c r="C228">
-        <v>17.680599999999998</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.277799999999999</v>
+      </c>
+      <c r="D228">
+        <v>13.423400000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229">
-        <v>6.4939299999999998</v>
+        <v>5.3997900000000003</v>
       </c>
       <c r="C229">
-        <v>8.14222</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.0330000000000004</v>
+      </c>
+      <c r="D229">
+        <v>5.9468899999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230">
-        <v>33.987900000000003</v>
+        <v>29.2681</v>
       </c>
       <c r="C230">
-        <v>38.957799999999999</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34.124099999999999</v>
+      </c>
+      <c r="D230">
+        <v>30.8888</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231">
-        <v>34.060299999999998</v>
+        <v>29.317900000000002</v>
       </c>
       <c r="C231">
-        <v>39.067100000000003</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34.237000000000002</v>
+      </c>
+      <c r="D231">
+        <v>30.931899999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232">
-        <v>14.260300000000001</v>
+        <v>11.948700000000001</v>
       </c>
       <c r="C232">
-        <v>17.710699999999999</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.4465</v>
+      </c>
+      <c r="D232">
+        <v>13.427099999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233">
-        <v>2.85467</v>
+        <v>2.3511000000000002</v>
       </c>
       <c r="C233">
-        <v>3.70207</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2331599999999998</v>
+      </c>
+      <c r="D233">
+        <v>2.7247599999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234">
-        <v>0.11863600000000001</v>
+        <v>9.5002000000000003E-2</v>
       </c>
       <c r="C234">
-        <v>0.16330800000000001</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.13706399999999999</v>
+      </c>
+      <c r="D234">
+        <v>0.118714</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235">
-        <v>4.6517999999999997E-2</v>
+        <v>4.09541E-2</v>
       </c>
       <c r="C235">
-        <v>0.120322</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.11197600000000001</v>
+      </c>
+      <c r="D235">
+        <v>8.2186200000000001E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236">
-        <v>2.3269099999999998</v>
+        <v>2.04061</v>
       </c>
       <c r="C236">
-        <v>2.81656</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5195500000000002</v>
+      </c>
+      <c r="D236">
+        <v>2.25047</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237">
-        <v>13.679600000000001</v>
+        <v>11.472200000000001</v>
       </c>
       <c r="C237">
-        <v>17.014900000000001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.817399999999999</v>
+      </c>
+      <c r="D237">
+        <v>12.9338</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.69996599999999998</v>
+        <v>0.58426999999999996</v>
       </c>
       <c r="C238">
-        <v>0.843032</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.72107200000000005</v>
+      </c>
+      <c r="D238">
+        <v>0.64367200000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239">
-        <v>1.3097000000000001</v>
+        <v>1.1386099999999999</v>
       </c>
       <c r="C239">
-        <v>2.21129</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0440499999999999</v>
+      </c>
+      <c r="D239">
+        <v>1.50152</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1.1489799999999999</v>
+        <v>0.98684300000000003</v>
       </c>
       <c r="C240">
-        <v>1.4428799999999999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2936099999999999</v>
+      </c>
+      <c r="D240">
+        <v>1.1611400000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.189609</v>
+        <v>0.159526</v>
       </c>
       <c r="C241">
-        <v>0.436612</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.40738000000000002</v>
+      </c>
+      <c r="D241">
+        <v>0.26435799999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.128084</v>
+        <v>0.113916</v>
       </c>
       <c r="C242">
-        <v>0.19847400000000001</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.181732</v>
+      </c>
+      <c r="D242">
+        <v>0.15723400000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.39388200000000001</v>
+        <v>0.344032</v>
       </c>
       <c r="C243">
-        <v>0.45895599999999998</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.410914</v>
+      </c>
+      <c r="D243">
+        <v>0.37776399999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244">
-        <v>1.9755199999999999</v>
+        <v>1.6989300000000001</v>
       </c>
       <c r="C244">
-        <v>4.15212</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.87459</v>
+      </c>
+      <c r="D244">
+        <v>2.5616699999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1.9789600000000001</v>
+        <v>1.67533</v>
       </c>
       <c r="C245">
-        <v>2.6343100000000002</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3079299999999998</v>
+      </c>
+      <c r="D245">
+        <v>1.9397200000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.11978</v>
+        <v>0.100754</v>
       </c>
       <c r="C246">
-        <v>0.23208300000000001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.21011199999999999</v>
+      </c>
+      <c r="D246">
+        <v>0.167682</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247">
-        <v>5.5226200000000003E-2</v>
+        <v>4.8150100000000001E-2</v>
       </c>
       <c r="C247">
-        <v>0.12771399999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.11891</v>
+      </c>
+      <c r="D247">
+        <v>9.1220200000000001E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248">
-        <v>13.6579</v>
+        <v>11.4633</v>
       </c>
       <c r="C248">
-        <v>17.047499999999999</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.7401</v>
+      </c>
+      <c r="D248">
+        <v>12.901400000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249">
-        <v>2.1518999999999999</v>
+        <v>1.84276</v>
       </c>
       <c r="C249">
-        <v>2.5241899999999999</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.17536</v>
+      </c>
+      <c r="D249">
+        <v>1.9488099999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.164524</v>
+        <v>0.13778599999999999</v>
       </c>
       <c r="C250">
-        <v>0.51539400000000002</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48802200000000001</v>
+      </c>
+      <c r="D250">
+        <v>0.255658</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251">
-        <v>2.84328</v>
+        <v>2.4402599999999999</v>
       </c>
       <c r="C251">
-        <v>3.6049099999999998</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2070500000000002</v>
+      </c>
+      <c r="D251">
+        <v>2.75874</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.16994600000000001</v>
+        <v>0.14357800000000001</v>
       </c>
       <c r="C252">
-        <v>0.54164199999999996</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51522800000000002</v>
+      </c>
+      <c r="D252">
+        <v>0.29074499999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.92674400000000001</v>
+        <v>0.77815100000000004</v>
       </c>
       <c r="C253">
-        <v>1.2163999999999999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0630599999999999</v>
+      </c>
+      <c r="D253">
+        <v>0.908829</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254">
-        <v>25.715800000000002</v>
+        <v>23.604399999999998</v>
       </c>
       <c r="C254">
-        <v>27.3367</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25.128499999999999</v>
+      </c>
+      <c r="D254">
+        <v>23.8887</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255">
-        <v>1.2203900000000001</v>
+        <v>1.03538</v>
       </c>
       <c r="C255">
-        <v>1.6063000000000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4634799999999999</v>
+      </c>
+      <c r="D255">
+        <v>1.1715599999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.59589999999999999</v>
+        <v>0.52118200000000003</v>
       </c>
       <c r="C256">
-        <v>1.2258199999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1902999999999999</v>
+      </c>
+      <c r="D256">
+        <v>0.75683900000000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.69149499999999997</v>
+        <v>0.58775599999999995</v>
       </c>
       <c r="C257">
-        <v>0.96148199999999995</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83387299999999998</v>
+      </c>
+      <c r="D257">
+        <v>0.69765699999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258">
-        <v>3.24823</v>
+        <v>2.8013300000000001</v>
       </c>
       <c r="C258">
-        <v>7.0842900000000002</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.4275599999999997</v>
+      </c>
+      <c r="D258">
+        <v>4.4955999999999996</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259">
-        <v>28.765899999999998</v>
+        <v>23.782499999999999</v>
       </c>
       <c r="C259">
-        <v>36.6419</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30.045500000000001</v>
+      </c>
+      <c r="D259">
+        <v>26.4909</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260">
-        <v>1.67157</v>
+        <v>1.4032100000000001</v>
       </c>
       <c r="C260">
-        <v>3.6381199999999998</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3147600000000002</v>
+      </c>
+      <c r="D260">
+        <v>2.1418900000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261">
-        <v>0.71263799999999999</v>
+        <v>0.59955800000000004</v>
       </c>
       <c r="C261">
-        <v>0.96263399999999999</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.82105600000000001</v>
+      </c>
+      <c r="D261">
+        <v>0.70824399999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.57955599999999996</v>
+        <v>0.48670600000000003</v>
       </c>
       <c r="C262">
-        <v>1.3461799999999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.19855</v>
+      </c>
+      <c r="D262">
+        <v>0.74453199999999997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.102756</v>
+        <v>9.2851900000000001E-2</v>
       </c>
       <c r="C263">
-        <v>0.165994</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14589199999999999</v>
+      </c>
+      <c r="D263">
+        <v>0.117488</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264">
-        <v>2.0087700000000002</v>
+        <v>1.7012499999999999</v>
       </c>
       <c r="C264">
-        <v>4.6161199999999996</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1490799999999997</v>
+      </c>
+      <c r="D264">
+        <v>2.7082899999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265">
-        <v>1.28555</v>
+        <v>0.99105299999999996</v>
       </c>
       <c r="C265">
-        <v>1.63537</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2047600000000001</v>
+      </c>
+      <c r="D265">
+        <v>1.0721000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.914381</v>
+        <v>0.79873499999999997</v>
       </c>
       <c r="C266">
-        <v>1.9712099999999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5867800000000001</v>
+      </c>
+      <c r="D266">
+        <v>1.2049300000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.253106</v>
+        <v>0.21754100000000001</v>
       </c>
       <c r="C267">
-        <v>0.62243800000000005</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.55427999999999999</v>
+      </c>
+      <c r="D267">
+        <v>0.34411599999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1.13585</v>
+        <v>0.973302</v>
       </c>
       <c r="C268">
-        <v>1.5440799999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.29779</v>
+      </c>
+      <c r="D268">
+        <v>1.13303</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269">
-        <v>2.6193200000000001</v>
+        <v>2.2640899999999999</v>
       </c>
       <c r="C269">
-        <v>3.6233499999999998</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9417200000000001</v>
+      </c>
+      <c r="D269">
+        <v>2.5352899999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270">
-        <v>13.762700000000001</v>
+        <v>11.489599999999999</v>
       </c>
       <c r="C270">
-        <v>17.3614</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.755100000000001</v>
+      </c>
+      <c r="D270">
+        <v>12.927199999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271">
-        <v>1.55148</v>
+        <v>1.3035600000000001</v>
       </c>
       <c r="C271">
-        <v>2.9559500000000001</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6667999999999998</v>
+      </c>
+      <c r="D271">
+        <v>1.8596200000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.91697600000000001</v>
+        <v>0.80619300000000005</v>
       </c>
       <c r="C272">
-        <v>1.7128399999999999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6108199999999999</v>
+      </c>
+      <c r="D272">
+        <v>1.21069</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.83366300000000004</v>
+        <v>0.72691499999999998</v>
       </c>
       <c r="C273">
-        <v>1.75553</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.63066</v>
+      </c>
+      <c r="D273">
+        <v>1.1415500000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.59801599999999999</v>
+        <v>0.51663199999999998</v>
       </c>
       <c r="C274">
-        <v>0.75200599999999995</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.65868199999999999</v>
+      </c>
+      <c r="D274">
+        <v>0.58412799999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275">
-        <v>5.9339999999999997E-2</v>
+        <v>5.0051999999999999E-2</v>
       </c>
       <c r="C275">
-        <v>0.13272200000000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.121818</v>
+      </c>
+      <c r="D275">
+        <v>9.6043799999999999E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.72207900000000003</v>
+        <v>0.58909599999999995</v>
       </c>
       <c r="C276">
-        <v>1.38198</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.25159</v>
+      </c>
+      <c r="D276">
+        <v>0.87000200000000005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1.0327999999999999</v>
+        <v>0.872587</v>
       </c>
       <c r="C277">
-        <v>2.3874200000000001</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2380900000000001</v>
+      </c>
+      <c r="D277">
+        <v>1.4827300000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.94028400000000001</v>
+        <v>0.82293099999999997</v>
       </c>
       <c r="C278">
-        <v>1.1405400000000001</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0147200000000001</v>
+      </c>
+      <c r="D278">
+        <v>0.94022300000000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279">
-        <v>1.5239799999999999</v>
+        <v>1.3119099999999999</v>
       </c>
       <c r="C279">
-        <v>3.0803199999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8878300000000001</v>
+      </c>
+      <c r="D279">
+        <v>1.8912100000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.69358500000000001</v>
+        <v>0.57799599999999995</v>
       </c>
       <c r="C280">
-        <v>1.74455</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.64059</v>
+      </c>
+      <c r="D280">
+        <v>1.05684</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281">
-        <v>13.686999999999999</v>
+        <v>11.458399999999999</v>
       </c>
       <c r="C281">
-        <v>17.084599999999998</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.8049</v>
+      </c>
+      <c r="D281">
+        <v>12.885300000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.64471199999999995</v>
+        <v>0.53263400000000005</v>
       </c>
       <c r="C282">
-        <v>1.3565199999999999</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3056000000000001</v>
+      </c>
+      <c r="D282">
+        <v>0.84060800000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.13492000000000001</v>
+        <v>0.120586</v>
       </c>
       <c r="C283">
-        <v>0.32306400000000002</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.30724600000000002</v>
+      </c>
+      <c r="D283">
+        <v>0.20124400000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.56060699999999997</v>
+        <v>0.47897000000000001</v>
       </c>
       <c r="C284">
-        <v>1.31915</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2477199999999999</v>
+      </c>
+      <c r="D284">
+        <v>0.74594700000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.52249699999999999</v>
+        <v>0.443276</v>
       </c>
       <c r="C285">
-        <v>0.71003300000000003</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.62310699999999997</v>
+      </c>
+      <c r="D285">
+        <v>0.51310599999999995</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.272623</v>
+        <v>0.238149</v>
       </c>
       <c r="C286">
-        <v>0.47009800000000002</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.43054399999999998</v>
+      </c>
+      <c r="D286">
+        <v>0.341254</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.460094</v>
+        <v>0.40516400000000002</v>
       </c>
       <c r="C287">
-        <v>0.85026100000000004</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.79997600000000002</v>
+      </c>
+      <c r="D287">
+        <v>0.56326399999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288">
-        <v>8.0376100000000006E-2</v>
+        <v>6.9326200000000004E-2</v>
       </c>
       <c r="C288">
-        <v>0.16719300000000001</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.15608</v>
+      </c>
+      <c r="D288">
+        <v>0.11867999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.73850300000000002</v>
+        <v>0.64416300000000004</v>
       </c>
       <c r="C289">
-        <v>0.93595200000000001</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.83079899999999995</v>
+      </c>
+      <c r="D289">
+        <v>0.75135600000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290">
-        <v>1.0066200000000001</v>
+        <v>0.93669000000000002</v>
       </c>
       <c r="C290">
-        <v>1.2098</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1046</v>
+      </c>
+      <c r="D290">
+        <v>1.01186</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.62310399999999999</v>
+        <v>0.52806200000000003</v>
       </c>
       <c r="C291">
-        <v>0.80976199999999998</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.705206</v>
+      </c>
+      <c r="D291">
+        <v>0.60027799999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
       <c r="C292" t="s">
         <v>292</v>
+      </c>
+      <c r="D292" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
